--- a/biology/Botanique/Ismene_narcissiflora/Ismene_narcissiflora.xlsx
+++ b/biology/Botanique/Ismene_narcissiflora/Ismene_narcissiflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ismene narcissiflora une espèce de plantes à fleurs à la famille des Amaryllidaceae. C'est une plante bulbeuse géophyte originaire du centre et du sud du Pérou dans le département de Apurímac, Cuzco à une altitude de 2500-3000 mètres. Ismene narcissiflora est aussi une plante ornementale[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ismene narcissiflora une espèce de plantes à fleurs à la famille des Amaryllidaceae. C'est une plante bulbeuse géophyte originaire du centre et du sud du Pérou dans le département de Apurímac, Cuzco à une altitude de 2500-3000 mètres. Ismene narcissiflora est aussi une plante ornementale,.
 </t>
         </is>
       </c>
@@ -511,11 +523,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ismene narcissiflora , a été décrite par Nikolaus Joseph von Jacquin et Max Joseph Roemer , publié dans  Familiarum Naturalium Regni Vegetabilis Monographicae 4: 186, en 1847 [4].
-Synonymes
-Pancratium narcissiflorum Jacq., Fragm. Bot.: 68. 1807. Basionyme
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ismene narcissiflora , a été décrite par Nikolaus Joseph von Jacquin et Max Joseph Roemer , publié dans  Familiarum Naturalium Regni Vegetabilis Monographicae 4: 186, en 1847 .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ismene_narcissiflora</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ismene_narcissiflora</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pancratium narcissiflorum Jacq., Fragm. Bot.: 68. 1807. Basionyme
 Hymenocallis narcissiflora (Jacq.) J.f.macbr., Publ. Field Mus. Nat. Hist., Bot. Être. 11: 11. 1931.
 Hymenocallis calathina (Herb.) G.Nicholson, Ill. Dict. Gard. 2: 165. 1885.
 Ismene calathiformis (F.Delaroche) M.Roem., Fam. Nat. Syn. Monogr. 4: 186. 1847.
@@ -523,7 +572,7 @@
 Ismene tagliabuei M.Roem., Fam. Nat. Syn. Monogr. 4: 186. 1847.
 Pancratium calathinum Ker Gawl., Bot. Reg. 3: T. 215. 1817, nom. illeg.
 Pancratium calathiforme F.Delaroche in P.j.redouté, Liliac. 6: T. 352. 1812.
-Siphotoma calathina (Herb.) Raf., Fl. Tellur. 4: 22. 1838[5],[1].</t>
+Siphotoma calathina (Herb.) Raf., Fl. Tellur. 4: 22. 1838,.</t>
         </is>
       </c>
     </row>
